--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65173793796978</v>
+        <v>0.1271473333333333</v>
       </c>
       <c r="N2">
-        <v>1.65173793796978</v>
+        <v>0.381442</v>
       </c>
       <c r="O2">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435267</v>
       </c>
       <c r="P2">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435268</v>
       </c>
       <c r="Q2">
-        <v>44.59583825398163</v>
+        <v>4.135488080741555</v>
       </c>
       <c r="R2">
-        <v>44.59583825398163</v>
+        <v>37.219392726674</v>
       </c>
       <c r="S2">
-        <v>0.01649480768941797</v>
+        <v>0.001230720521828671</v>
       </c>
       <c r="T2">
-        <v>0.01649480768941797</v>
+        <v>0.001230720521828671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.95869999976245</v>
+        <v>1.953533666666667</v>
       </c>
       <c r="N3">
-        <v>3.95869999976245</v>
+        <v>5.860601</v>
       </c>
       <c r="O3">
-        <v>0.7055955423976366</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="P3">
-        <v>0.7055955423976366</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="Q3">
-        <v>106.8822970200938</v>
+        <v>63.53900614374411</v>
       </c>
       <c r="R3">
-        <v>106.8822970200938</v>
+        <v>571.851055293697</v>
       </c>
       <c r="S3">
-        <v>0.03953290270515981</v>
+        <v>0.01890919699705233</v>
       </c>
       <c r="T3">
-        <v>0.03953290270515981</v>
+        <v>0.01890919699705233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.0154433058358</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>12.0154433058358</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.65173793796978</v>
+        <v>0.1507333333333333</v>
       </c>
       <c r="N4">
-        <v>1.65173793796978</v>
+        <v>0.4522</v>
       </c>
       <c r="O4">
-        <v>0.2944044576023635</v>
+        <v>0.02290200746579107</v>
       </c>
       <c r="P4">
-        <v>0.2944044576023635</v>
+        <v>0.02290200746579108</v>
       </c>
       <c r="Q4">
-        <v>19.84636354977402</v>
+        <v>4.902626638155556</v>
       </c>
       <c r="R4">
-        <v>19.84636354977402</v>
+        <v>44.1236397434</v>
       </c>
       <c r="S4">
-        <v>0.007340639012622875</v>
+        <v>0.001459020820913599</v>
       </c>
       <c r="T4">
-        <v>0.007340639012622875</v>
+        <v>0.0014590208209136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.0154433058358</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>12.0154433058358</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.95869999976245</v>
+        <v>0.035609</v>
       </c>
       <c r="N5">
-        <v>3.95869999976245</v>
+        <v>0.106827</v>
       </c>
       <c r="O5">
-        <v>0.7055955423976366</v>
+        <v>0.005410333373613585</v>
       </c>
       <c r="P5">
-        <v>0.7055955423976366</v>
+        <v>0.005410333373613586</v>
       </c>
       <c r="Q5">
-        <v>47.56553541195792</v>
+        <v>1.158188624224333</v>
       </c>
       <c r="R5">
-        <v>47.56553541195792</v>
+        <v>10.423697618019</v>
       </c>
       <c r="S5">
-        <v>0.01759321923261296</v>
+        <v>0.0003446767298446198</v>
       </c>
       <c r="T5">
-        <v>0.01759321923261296</v>
+        <v>0.0003446767298446199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.384559057878</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>135.384559057878</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.2809433924508936</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.2809433924508936</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65173793796978</v>
+        <v>4.314641333333333</v>
       </c>
       <c r="N6">
-        <v>1.65173793796978</v>
+        <v>12.943924</v>
       </c>
       <c r="O6">
-        <v>0.2944044576023635</v>
+        <v>0.6555547193379749</v>
       </c>
       <c r="P6">
-        <v>0.2944044576023635</v>
+        <v>0.655554719337975</v>
       </c>
       <c r="Q6">
-        <v>223.6198124112073</v>
+        <v>140.3344241589142</v>
       </c>
       <c r="R6">
-        <v>223.6198124112073</v>
+        <v>1263.009817430228</v>
       </c>
       <c r="S6">
-        <v>0.08271098707147326</v>
+        <v>0.04176349982380195</v>
       </c>
       <c r="T6">
-        <v>0.08271098707147326</v>
+        <v>0.04176349982380195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H7">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J7">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.95869999976245</v>
+        <v>0.1271473333333333</v>
       </c>
       <c r="N7">
-        <v>3.95869999976245</v>
+        <v>0.381442</v>
       </c>
       <c r="O7">
-        <v>0.7055955423976366</v>
+        <v>0.01931841559435267</v>
       </c>
       <c r="P7">
-        <v>0.7055955423976366</v>
+        <v>0.01931841559435268</v>
       </c>
       <c r="Q7">
-        <v>535.946853910261</v>
+        <v>1.545572087198</v>
       </c>
       <c r="R7">
-        <v>535.946853910261</v>
+        <v>13.910148784782</v>
       </c>
       <c r="S7">
-        <v>0.1982324053794203</v>
+        <v>0.0004599619799506383</v>
       </c>
       <c r="T7">
-        <v>0.1982324053794203</v>
+        <v>0.0004599619799506384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>160.10829669583</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>160.10829669583</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.3322488793868345</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.3322488793868345</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65173793796978</v>
+        <v>1.953533666666667</v>
       </c>
       <c r="N8">
-        <v>1.65173793796978</v>
+        <v>5.860601</v>
       </c>
       <c r="O8">
-        <v>0.2944044576023635</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="P8">
-        <v>0.2944044576023635</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="Q8">
-        <v>264.456947836224</v>
+        <v>23.746680543319</v>
       </c>
       <c r="R8">
-        <v>264.456947836224</v>
+        <v>213.720124889871</v>
       </c>
       <c r="S8">
-        <v>0.09781555112487408</v>
+        <v>0.007067007932164501</v>
       </c>
       <c r="T8">
-        <v>0.09781555112487408</v>
+        <v>0.007067007932164501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>160.10829669583</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>160.10829669583</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.3322488793868345</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.3322488793868345</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.95869999976245</v>
+        <v>0.1507333333333333</v>
       </c>
       <c r="N9">
-        <v>3.95869999976245</v>
+        <v>0.4522</v>
       </c>
       <c r="O9">
-        <v>0.7055955423976366</v>
+        <v>0.02290200746579107</v>
       </c>
       <c r="P9">
-        <v>0.7055955423976366</v>
+        <v>0.02290200746579108</v>
       </c>
       <c r="Q9">
-        <v>633.8207140917485</v>
+        <v>1.8322777718</v>
       </c>
       <c r="R9">
-        <v>633.8207140917485</v>
+        <v>16.4904999462</v>
       </c>
       <c r="S9">
-        <v>0.2344333282619604</v>
+        <v>0.0005452855410093242</v>
       </c>
       <c r="T9">
-        <v>0.2344333282619604</v>
+        <v>0.0005452855410093243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.08143593009</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>138.08143593009</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.2865398189767405</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.2865398189767405</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.65173793796978</v>
+        <v>0.035609</v>
       </c>
       <c r="N10">
-        <v>1.65173793796978</v>
+        <v>0.106827</v>
       </c>
       <c r="O10">
-        <v>0.2944044576023635</v>
+        <v>0.005410333373613585</v>
       </c>
       <c r="P10">
-        <v>0.2944044576023635</v>
+        <v>0.005410333373613586</v>
       </c>
       <c r="Q10">
-        <v>228.0743462550732</v>
+        <v>0.4328543510130001</v>
       </c>
       <c r="R10">
-        <v>228.0743462550732</v>
+        <v>3.895689159117</v>
       </c>
       <c r="S10">
-        <v>0.0843585999873267</v>
+        <v>0.0001288173783489675</v>
       </c>
       <c r="T10">
-        <v>0.0843585999873267</v>
+        <v>0.0001288173783489675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.08143593009</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>138.08143593009</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.2865398189767405</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.2865398189767405</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.95869999976245</v>
+        <v>4.314641333333333</v>
       </c>
       <c r="N11">
-        <v>3.95869999976245</v>
+        <v>12.943924</v>
       </c>
       <c r="O11">
-        <v>0.7055955423976366</v>
+        <v>0.6555547193379749</v>
       </c>
       <c r="P11">
-        <v>0.7055955423976366</v>
+        <v>0.655554719337975</v>
       </c>
       <c r="Q11">
-        <v>546.6229803836461</v>
+        <v>52.447731590156</v>
       </c>
       <c r="R11">
-        <v>546.6229803836461</v>
+        <v>472.029584311404</v>
       </c>
       <c r="S11">
-        <v>0.2021812189894138</v>
+        <v>0.01560843565042808</v>
       </c>
       <c r="T11">
-        <v>0.2021812189894138</v>
+        <v>0.01560843565042808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.30358382520104</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H12">
-        <v>9.30358382520104</v>
+        <v>453.201478</v>
       </c>
       <c r="I12">
-        <v>0.01930634054571784</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J12">
-        <v>0.01930634054571784</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.65173793796978</v>
+        <v>0.1271473333333333</v>
       </c>
       <c r="N12">
-        <v>1.65173793796978</v>
+        <v>0.381442</v>
       </c>
       <c r="O12">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435267</v>
       </c>
       <c r="P12">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435268</v>
       </c>
       <c r="Q12">
-        <v>15.36708236316656</v>
+        <v>19.20778646347511</v>
       </c>
       <c r="R12">
-        <v>15.36708236316656</v>
+        <v>172.870078171276</v>
       </c>
       <c r="S12">
-        <v>0.005683872716648579</v>
+        <v>0.005716233856310104</v>
       </c>
       <c r="T12">
-        <v>0.005683872716648579</v>
+        <v>0.005716233856310106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>151.0671593333333</v>
+      </c>
+      <c r="H13">
+        <v>453.201478</v>
+      </c>
+      <c r="I13">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="J13">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.860601</v>
+      </c>
+      <c r="O13">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P13">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q13">
+        <v>295.1147816853642</v>
+      </c>
+      <c r="R13">
+        <v>2656.033035168278</v>
+      </c>
+      <c r="S13">
+        <v>0.08782610686428044</v>
+      </c>
+      <c r="T13">
+        <v>0.08782610686428044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>151.0671593333333</v>
+      </c>
+      <c r="H14">
+        <v>453.201478</v>
+      </c>
+      <c r="I14">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="J14">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.4522</v>
+      </c>
+      <c r="O14">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P14">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q14">
+        <v>22.77085648351111</v>
+      </c>
+      <c r="R14">
+        <v>204.9377083516</v>
+      </c>
+      <c r="S14">
+        <v>0.00677660286445496</v>
+      </c>
+      <c r="T14">
+        <v>0.006776602864454962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>151.0671593333333</v>
+      </c>
+      <c r="H15">
+        <v>453.201478</v>
+      </c>
+      <c r="I15">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="J15">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.035609</v>
+      </c>
+      <c r="N15">
+        <v>0.106827</v>
+      </c>
+      <c r="O15">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P15">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q15">
+        <v>5.379350476700667</v>
+      </c>
+      <c r="R15">
+        <v>48.414154290306</v>
+      </c>
+      <c r="S15">
+        <v>0.001600893750997634</v>
+      </c>
+      <c r="T15">
+        <v>0.001600893750997634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>151.0671593333333</v>
+      </c>
+      <c r="H16">
+        <v>453.201478</v>
+      </c>
+      <c r="I16">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="J16">
+        <v>0.2958955835892216</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N16">
+        <v>12.943924</v>
+      </c>
+      <c r="O16">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P16">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q16">
+        <v>651.8006097688525</v>
+      </c>
+      <c r="R16">
+        <v>5866.205487919672</v>
+      </c>
+      <c r="S16">
+        <v>0.1939757462531785</v>
+      </c>
+      <c r="T16">
+        <v>0.1939757462531785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>162.458898</v>
+      </c>
+      <c r="H17">
+        <v>487.376694</v>
+      </c>
+      <c r="I17">
+        <v>0.3182086076491469</v>
+      </c>
+      <c r="J17">
+        <v>0.318208607649147</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.381442</v>
+      </c>
+      <c r="O17">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P17">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q17">
+        <v>20.656215656972</v>
+      </c>
+      <c r="R17">
+        <v>185.905940912748</v>
+      </c>
+      <c r="S17">
+        <v>0.006147286128266531</v>
+      </c>
+      <c r="T17">
+        <v>0.006147286128266534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>162.458898</v>
+      </c>
+      <c r="H18">
+        <v>487.376694</v>
+      </c>
+      <c r="I18">
+        <v>0.3182086076491469</v>
+      </c>
+      <c r="J18">
+        <v>0.318208607649147</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.860601</v>
+      </c>
+      <c r="O18">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P18">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q18">
+        <v>317.368926692566</v>
+      </c>
+      <c r="R18">
+        <v>2856.320340233094</v>
+      </c>
+      <c r="S18">
+        <v>0.09444893648472105</v>
+      </c>
+      <c r="T18">
+        <v>0.09444893648472107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>162.458898</v>
+      </c>
+      <c r="H19">
+        <v>487.376694</v>
+      </c>
+      <c r="I19">
+        <v>0.3182086076491469</v>
+      </c>
+      <c r="J19">
+        <v>0.318208607649147</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.4522</v>
+      </c>
+      <c r="O19">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P19">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q19">
+        <v>24.4879712252</v>
+      </c>
+      <c r="R19">
+        <v>220.3917410268</v>
+      </c>
+      <c r="S19">
+        <v>0.007287615908059746</v>
+      </c>
+      <c r="T19">
+        <v>0.007287615908059748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>162.458898</v>
+      </c>
+      <c r="H20">
+        <v>487.376694</v>
+      </c>
+      <c r="I20">
+        <v>0.3182086076491469</v>
+      </c>
+      <c r="J20">
+        <v>0.318208607649147</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.035609</v>
+      </c>
+      <c r="N20">
+        <v>0.106827</v>
+      </c>
+      <c r="O20">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P20">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q20">
+        <v>5.784998898882001</v>
+      </c>
+      <c r="R20">
+        <v>52.06499008993801</v>
+      </c>
+      <c r="S20">
+        <v>0.001721614649735291</v>
+      </c>
+      <c r="T20">
+        <v>0.001721614649735291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.30358382520104</v>
-      </c>
-      <c r="H13">
-        <v>9.30358382520104</v>
-      </c>
-      <c r="I13">
-        <v>0.01930634054571784</v>
-      </c>
-      <c r="J13">
-        <v>0.01930634054571784</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.95869999976245</v>
-      </c>
-      <c r="N13">
-        <v>3.95869999976245</v>
-      </c>
-      <c r="O13">
-        <v>0.7055955423976366</v>
-      </c>
-      <c r="P13">
-        <v>0.7055955423976366</v>
-      </c>
-      <c r="Q13">
-        <v>36.83009728661329</v>
-      </c>
-      <c r="R13">
-        <v>36.83009728661329</v>
-      </c>
-      <c r="S13">
-        <v>0.01362246782906926</v>
-      </c>
-      <c r="T13">
-        <v>0.01362246782906926</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>162.458898</v>
+      </c>
+      <c r="H21">
+        <v>487.376694</v>
+      </c>
+      <c r="I21">
+        <v>0.3182086076491469</v>
+      </c>
+      <c r="J21">
+        <v>0.318208607649147</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.943924</v>
+      </c>
+      <c r="O21">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P21">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q21">
+        <v>700.951876278584</v>
+      </c>
+      <c r="R21">
+        <v>6308.566886507256</v>
+      </c>
+      <c r="S21">
+        <v>0.2086031544783643</v>
+      </c>
+      <c r="T21">
+        <v>0.2086031544783644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H22">
+        <v>427.775368</v>
+      </c>
+      <c r="I22">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J22">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.381442</v>
+      </c>
+      <c r="O22">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P22">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q22">
+        <v>18.13016576896178</v>
+      </c>
+      <c r="R22">
+        <v>163.171491920656</v>
+      </c>
+      <c r="S22">
+        <v>0.005395534128106074</v>
+      </c>
+      <c r="T22">
+        <v>0.005395534128106075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H23">
+        <v>427.775368</v>
+      </c>
+      <c r="I23">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J23">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N23">
+        <v>5.860601</v>
+      </c>
+      <c r="O23">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P23">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q23">
+        <v>278.5578610529076</v>
+      </c>
+      <c r="R23">
+        <v>2507.020749476168</v>
+      </c>
+      <c r="S23">
+        <v>0.08289877021070724</v>
+      </c>
+      <c r="T23">
+        <v>0.08289877021070724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H24">
+        <v>427.775368</v>
+      </c>
+      <c r="I24">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J24">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.4522</v>
+      </c>
+      <c r="O24">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P24">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q24">
+        <v>21.49333571217778</v>
+      </c>
+      <c r="R24">
+        <v>193.4400214096</v>
+      </c>
+      <c r="S24">
+        <v>0.006396412908724176</v>
+      </c>
+      <c r="T24">
+        <v>0.006396412908724176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H25">
+        <v>427.775368</v>
+      </c>
+      <c r="I25">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J25">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.035609</v>
+      </c>
+      <c r="N25">
+        <v>0.106827</v>
+      </c>
+      <c r="O25">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P25">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q25">
+        <v>5.077551026370667</v>
+      </c>
+      <c r="R25">
+        <v>45.697959237336</v>
+      </c>
+      <c r="S25">
+        <v>0.00151107828792631</v>
+      </c>
+      <c r="T25">
+        <v>0.001511078287926311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H26">
+        <v>427.775368</v>
+      </c>
+      <c r="I26">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J26">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N26">
+        <v>12.943924</v>
+      </c>
+      <c r="O26">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P26">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q26">
+        <v>615.2324280515592</v>
+      </c>
+      <c r="R26">
+        <v>5537.091852464032</v>
+      </c>
+      <c r="S26">
+        <v>0.1830930618380023</v>
+      </c>
+      <c r="T26">
+        <v>0.1830930618380024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H27">
+        <v>29.23006</v>
+      </c>
+      <c r="I27">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J27">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.381442</v>
+      </c>
+      <c r="O27">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P27">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q27">
+        <v>1.238841394057778</v>
+      </c>
+      <c r="R27">
+        <v>11.14957254652</v>
+      </c>
+      <c r="S27">
+        <v>0.0003686789798906519</v>
+      </c>
+      <c r="T27">
+        <v>0.000368678979890652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H28">
+        <v>29.23006</v>
+      </c>
+      <c r="I28">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J28">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.860601</v>
+      </c>
+      <c r="O28">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P28">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q28">
+        <v>19.03396876289555</v>
+      </c>
+      <c r="R28">
+        <v>171.30571886606</v>
+      </c>
+      <c r="S28">
+        <v>0.005664505739342115</v>
+      </c>
+      <c r="T28">
+        <v>0.005664505739342116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H29">
+        <v>29.23006</v>
+      </c>
+      <c r="I29">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J29">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4522</v>
+      </c>
+      <c r="O29">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P29">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q29">
+        <v>1.468648125777778</v>
+      </c>
+      <c r="R29">
+        <v>13.217833132</v>
+      </c>
+      <c r="S29">
+        <v>0.0004370694226292668</v>
+      </c>
+      <c r="T29">
+        <v>0.000437069422629267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H30">
+        <v>29.23006</v>
+      </c>
+      <c r="I30">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J30">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.035609</v>
+      </c>
+      <c r="N30">
+        <v>0.106827</v>
+      </c>
+      <c r="O30">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P30">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q30">
+        <v>0.3469510688466667</v>
+      </c>
+      <c r="R30">
+        <v>3.122559619620001</v>
+      </c>
+      <c r="S30">
+        <v>0.0001032525767607622</v>
+      </c>
+      <c r="T30">
+        <v>0.0001032525767607623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H31">
+        <v>29.23006</v>
+      </c>
+      <c r="I31">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J31">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N31">
+        <v>12.943924</v>
+      </c>
+      <c r="O31">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P31">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q31">
+        <v>42.03907501727111</v>
+      </c>
+      <c r="R31">
+        <v>378.35167515544</v>
+      </c>
+      <c r="S31">
+        <v>0.01251082129419971</v>
+      </c>
+      <c r="T31">
+        <v>0.01251082129419972</v>
       </c>
     </row>
   </sheetData>
